--- a/data/pca/factorExposure/factorExposure_2017-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02326914244110581</v>
+        <v>0.01406378894608545</v>
       </c>
       <c r="C2">
-        <v>0.0006983077544830825</v>
+        <v>-0.0377854578117393</v>
       </c>
       <c r="D2">
-        <v>0.01249317797504789</v>
+        <v>0.0284456383253839</v>
       </c>
       <c r="E2">
-        <v>0.01078726888633239</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03337367066631506</v>
+      </c>
+      <c r="F2">
+        <v>0.02406639673379871</v>
+      </c>
+      <c r="G2">
+        <v>0.01644003661562655</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01254627630051707</v>
+        <v>0.0522819231114786</v>
       </c>
       <c r="C3">
-        <v>-0.05324432572895935</v>
+        <v>-0.07418370894682101</v>
       </c>
       <c r="D3">
-        <v>-0.004506822386461215</v>
+        <v>0.01462365728301446</v>
       </c>
       <c r="E3">
-        <v>-0.005178827757149292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09826283531133606</v>
+      </c>
+      <c r="F3">
+        <v>0.04806119305716067</v>
+      </c>
+      <c r="G3">
+        <v>0.08245162227773338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02242548799266418</v>
+        <v>0.05444699461913466</v>
       </c>
       <c r="C4">
-        <v>-0.01930288847507571</v>
+        <v>-0.06539624890008153</v>
       </c>
       <c r="D4">
-        <v>0.05836940851036632</v>
+        <v>0.02275661930027389</v>
       </c>
       <c r="E4">
-        <v>-0.008190370635188833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.009543775231346216</v>
+      </c>
+      <c r="F4">
+        <v>0.01320040371682059</v>
+      </c>
+      <c r="G4">
+        <v>0.04805633501842164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01512910192856114</v>
+        <v>0.03162354845077052</v>
       </c>
       <c r="C6">
-        <v>-0.02807054512777633</v>
+        <v>-0.05425756270485333</v>
       </c>
       <c r="D6">
-        <v>0.07805245806540809</v>
+        <v>0.01635861880740169</v>
       </c>
       <c r="E6">
-        <v>0.009435703826603225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.009894812499977597</v>
+      </c>
+      <c r="F6">
+        <v>0.01384946098158144</v>
+      </c>
+      <c r="G6">
+        <v>0.02709248794916921</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0103637949357691</v>
+        <v>0.0203763505253055</v>
       </c>
       <c r="C7">
-        <v>-0.007552514285791008</v>
+        <v>-0.03849460334195744</v>
       </c>
       <c r="D7">
-        <v>0.03946010465378421</v>
+        <v>0.01248431320363521</v>
       </c>
       <c r="E7">
-        <v>-0.06443968222768087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0106680113429832</v>
+      </c>
+      <c r="F7">
+        <v>0.004823895808906233</v>
+      </c>
+      <c r="G7">
+        <v>0.07880358612489499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0002571115906144409</v>
+        <v>-0.002485505156734106</v>
       </c>
       <c r="C8">
-        <v>0.009656318615705081</v>
+        <v>-0.01485504006668615</v>
       </c>
       <c r="D8">
-        <v>0.01383035971926905</v>
+        <v>0.003810456948795867</v>
       </c>
       <c r="E8">
-        <v>-0.003569468389977343</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0177204078179288</v>
+      </c>
+      <c r="F8">
+        <v>0.0128900310316907</v>
+      </c>
+      <c r="G8">
+        <v>0.0264873914398217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01457823738542308</v>
+        <v>0.0274196537079774</v>
       </c>
       <c r="C9">
-        <v>-0.01669869721584968</v>
+        <v>-0.04353141981214042</v>
       </c>
       <c r="D9">
-        <v>0.0399231231960429</v>
+        <v>0.01581017372454471</v>
       </c>
       <c r="E9">
-        <v>0.0005404889506266627</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01253087215591219</v>
+      </c>
+      <c r="F9">
+        <v>0.0167783507632484</v>
+      </c>
+      <c r="G9">
+        <v>0.03760327542962022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.008175101617360025</v>
+        <v>0.09112241410430814</v>
       </c>
       <c r="C10">
-        <v>-0.1349051121887187</v>
+        <v>0.1831022237514197</v>
       </c>
       <c r="D10">
-        <v>-0.1327781584139606</v>
+        <v>-0.01853335943149835</v>
       </c>
       <c r="E10">
-        <v>-0.02911876532204833</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01770727492440995</v>
+      </c>
+      <c r="F10">
+        <v>-0.0169740214319158</v>
+      </c>
+      <c r="G10">
+        <v>0.03843113971694221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-7.070227550507259e-05</v>
+        <v>0.03495786039441769</v>
       </c>
       <c r="C11">
-        <v>-0.007034323825934639</v>
+        <v>-0.05388080835680908</v>
       </c>
       <c r="D11">
-        <v>0.04117248113709353</v>
+        <v>0.001592549465689769</v>
       </c>
       <c r="E11">
-        <v>0.01464653421389146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.003643149828354829</v>
+      </c>
+      <c r="F11">
+        <v>0.02147144268486206</v>
+      </c>
+      <c r="G11">
+        <v>0.01830495891992934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005512927516478018</v>
+        <v>0.03237406995602448</v>
       </c>
       <c r="C12">
-        <v>-0.01679106766985145</v>
+        <v>-0.04569203890138654</v>
       </c>
       <c r="D12">
-        <v>0.0437056361546586</v>
+        <v>0.005655213028070284</v>
       </c>
       <c r="E12">
-        <v>0.008167766636023794</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.005544495522516625</v>
+      </c>
+      <c r="F12">
+        <v>0.00526603533005784</v>
+      </c>
+      <c r="G12">
+        <v>0.02135909147616144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02119559678254866</v>
+        <v>0.01321100692398131</v>
       </c>
       <c r="C13">
-        <v>-0.01444340334145878</v>
+        <v>-0.03332730303194936</v>
       </c>
       <c r="D13">
-        <v>0.006214116984848611</v>
+        <v>0.0247150580353717</v>
       </c>
       <c r="E13">
-        <v>0.007054808507465136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02830313521914866</v>
+      </c>
+      <c r="F13">
+        <v>0.01113641964713409</v>
+      </c>
+      <c r="G13">
+        <v>0.03233405463072984</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006926977078312562</v>
+        <v>0.007987229623319997</v>
       </c>
       <c r="C14">
-        <v>-0.01335733639371381</v>
+        <v>-0.02639190940667684</v>
       </c>
       <c r="D14">
-        <v>0.01018932128345652</v>
+        <v>0.008364119876994735</v>
       </c>
       <c r="E14">
-        <v>-0.01235729103753078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.005999218303891423</v>
+      </c>
+      <c r="F14">
+        <v>-0.002519671666425275</v>
+      </c>
+      <c r="G14">
+        <v>0.03713207817909463</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0006158537683619307</v>
+        <v>0.03158624494246406</v>
       </c>
       <c r="C16">
-        <v>-0.01337522266640285</v>
+        <v>-0.0439959519953626</v>
       </c>
       <c r="D16">
-        <v>0.04586527439960379</v>
+        <v>0.001183415224052658</v>
       </c>
       <c r="E16">
-        <v>0.009483094628992696</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.004005237393140216</v>
+      </c>
+      <c r="F16">
+        <v>0.006542851388613321</v>
+      </c>
+      <c r="G16">
+        <v>0.02078649100699365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0121684134653871</v>
+        <v>0.02878862035873292</v>
       </c>
       <c r="C19">
-        <v>-0.02006964558052652</v>
+        <v>-0.05451134144667416</v>
       </c>
       <c r="D19">
-        <v>0.02318843274791975</v>
+        <v>0.01577234409993303</v>
       </c>
       <c r="E19">
-        <v>-8.200168106472102e-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.05004252997736193</v>
+      </c>
+      <c r="F19">
+        <v>0.02918247594370595</v>
+      </c>
+      <c r="G19">
+        <v>0.04318301457867824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.009808570864759244</v>
+        <v>0.01141726346348</v>
       </c>
       <c r="C20">
-        <v>-0.001032177740839333</v>
+        <v>-0.03477579998488183</v>
       </c>
       <c r="D20">
-        <v>0.00648829812563326</v>
+        <v>0.01315115182359134</v>
       </c>
       <c r="E20">
-        <v>-0.002492102635433774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02419453220809308</v>
+      </c>
+      <c r="F20">
+        <v>-0.0002527539326501819</v>
+      </c>
+      <c r="G20">
+        <v>0.03217157894234167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01345864542973109</v>
+        <v>0.01329115960846176</v>
       </c>
       <c r="C21">
-        <v>-0.0326108649161705</v>
+        <v>-0.03351599910298349</v>
       </c>
       <c r="D21">
-        <v>0.01091008332631919</v>
+        <v>0.01621874760971706</v>
       </c>
       <c r="E21">
-        <v>-0.02078562732363869</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03191597969439293</v>
+      </c>
+      <c r="F21">
+        <v>0.008267262449952096</v>
+      </c>
+      <c r="G21">
+        <v>0.05689709738793071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004649120215911669</v>
+        <v>0.02612605314416408</v>
       </c>
       <c r="C24">
-        <v>-0.008151129404692181</v>
+        <v>-0.04695881162490026</v>
       </c>
       <c r="D24">
-        <v>0.04338891220419727</v>
+        <v>0.00645231969418428</v>
       </c>
       <c r="E24">
-        <v>0.01078497751260015</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.001797347672679325</v>
+      </c>
+      <c r="F24">
+        <v>0.01785067575237323</v>
+      </c>
+      <c r="G24">
+        <v>0.02027177204427853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01085053153544862</v>
+        <v>0.04299246708633781</v>
       </c>
       <c r="C25">
-        <v>-0.02381368971354101</v>
+        <v>-0.05465369574182236</v>
       </c>
       <c r="D25">
-        <v>0.04028331138520806</v>
+        <v>0.01036704100344239</v>
       </c>
       <c r="E25">
-        <v>0.009315586828503933</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.008834292990933745</v>
+      </c>
+      <c r="F25">
+        <v>0.01310153112457678</v>
+      </c>
+      <c r="G25">
+        <v>0.02545037171878636</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02273919266901058</v>
+        <v>0.009055588488329026</v>
       </c>
       <c r="C26">
-        <v>-0.006981552676130562</v>
+        <v>-0.009055532412875867</v>
       </c>
       <c r="D26">
-        <v>-0.006171433012718954</v>
+        <v>0.02369156078204071</v>
       </c>
       <c r="E26">
-        <v>-0.008928937215222183</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.009735443677340415</v>
+      </c>
+      <c r="F26">
+        <v>-8.286030706152443e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.02726474183840811</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02470361794290864</v>
+        <v>0.117204405471425</v>
       </c>
       <c r="C28">
-        <v>-0.2002247950109543</v>
+        <v>0.2262870289963022</v>
       </c>
       <c r="D28">
-        <v>-0.1943826145715205</v>
+        <v>-0.009800751780672634</v>
       </c>
       <c r="E28">
-        <v>-0.04368874642913881</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.009200288535086046</v>
+      </c>
+      <c r="F28">
+        <v>-0.0105154905241567</v>
+      </c>
+      <c r="G28">
+        <v>0.05465983114832473</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007129404373849172</v>
+        <v>0.01331782447395292</v>
       </c>
       <c r="C29">
-        <v>-0.01839320283715392</v>
+        <v>-0.02061000890305208</v>
       </c>
       <c r="D29">
-        <v>0.008248051040376982</v>
+        <v>0.007047671901802962</v>
       </c>
       <c r="E29">
-        <v>-0.006941033190572195</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.005845048113050238</v>
+      </c>
+      <c r="F29">
+        <v>-0.01156181417406596</v>
+      </c>
+      <c r="G29">
+        <v>0.02813763787500277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02411580124476985</v>
+        <v>0.04031628616892175</v>
       </c>
       <c r="C30">
-        <v>-0.01472728795223139</v>
+        <v>-0.07071443029187272</v>
       </c>
       <c r="D30">
-        <v>0.05758984676758702</v>
+        <v>0.02721127863632339</v>
       </c>
       <c r="E30">
-        <v>0.06803843322182103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02935506291199931</v>
+      </c>
+      <c r="F30">
+        <v>0.04012022973611008</v>
+      </c>
+      <c r="G30">
+        <v>0.00144702353095745</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.00658200843438886</v>
+        <v>0.04452655803957303</v>
       </c>
       <c r="C31">
-        <v>-0.04777457584149201</v>
+        <v>-0.03185167021518306</v>
       </c>
       <c r="D31">
-        <v>0.0336821214369329</v>
+        <v>0.002970125780444006</v>
       </c>
       <c r="E31">
-        <v>-0.001775400021220847</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.01028546549381409</v>
+      </c>
+      <c r="F31">
+        <v>-0.03951569220807997</v>
+      </c>
+      <c r="G31">
+        <v>0.02575284755113267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007607987657136082</v>
+        <v>0.006261164169466645</v>
       </c>
       <c r="C32">
-        <v>-0.01008444514506926</v>
+        <v>-0.03184179895483779</v>
       </c>
       <c r="D32">
-        <v>0.00656525145485095</v>
+        <v>-0.004883745801563553</v>
       </c>
       <c r="E32">
-        <v>-0.02404632221458835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02105983799620709</v>
+      </c>
+      <c r="F32">
+        <v>0.06419751388361498</v>
+      </c>
+      <c r="G32">
+        <v>0.04804685412795995</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01198410551667372</v>
+        <v>0.0285901293311435</v>
       </c>
       <c r="C33">
-        <v>-0.02460178196136176</v>
+        <v>-0.04988439785904129</v>
       </c>
       <c r="D33">
-        <v>0.01567943317576376</v>
+        <v>0.01418149462548252</v>
       </c>
       <c r="E33">
-        <v>0.02733940018316772</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02605609717164278</v>
+      </c>
+      <c r="F33">
+        <v>0.02060980715121344</v>
+      </c>
+      <c r="G33">
+        <v>0.02991762331871578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005233051453770792</v>
+        <v>0.0448453467967803</v>
       </c>
       <c r="C34">
-        <v>-0.02019717416132989</v>
+        <v>-0.05574357068316004</v>
       </c>
       <c r="D34">
-        <v>0.0465624469124986</v>
+        <v>-0.005657701787146096</v>
       </c>
       <c r="E34">
-        <v>0.001044639876825637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.007515073529935221</v>
+      </c>
+      <c r="F34">
+        <v>0.02127224649753873</v>
+      </c>
+      <c r="G34">
+        <v>0.0315440900666101</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01158266186913335</v>
+        <v>0.01121045513092965</v>
       </c>
       <c r="C36">
-        <v>-0.01782502498917189</v>
+        <v>-0.007159870169616615</v>
       </c>
       <c r="D36">
-        <v>-0.002371090238114506</v>
+        <v>0.01124725148088823</v>
       </c>
       <c r="E36">
-        <v>-0.002366484334599417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001448691121251969</v>
+      </c>
+      <c r="F36">
+        <v>-0.002883285968664751</v>
+      </c>
+      <c r="G36">
+        <v>0.02052970047278017</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006612468962980241</v>
+        <v>0.03354764825281328</v>
       </c>
       <c r="C38">
-        <v>-0.0268342025676668</v>
+        <v>-0.02608299343235931</v>
       </c>
       <c r="D38">
-        <v>0.01471625099579534</v>
+        <v>-0.008105269822064538</v>
       </c>
       <c r="E38">
-        <v>0.001434759570224427</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00506331226294097</v>
+      </c>
+      <c r="F38">
+        <v>-0.003020035546298911</v>
+      </c>
+      <c r="G38">
+        <v>0.02942216999702026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.005861844135091761</v>
+        <v>0.03170858932451025</v>
       </c>
       <c r="C39">
-        <v>0.01213326307721738</v>
+        <v>-0.08224480977817725</v>
       </c>
       <c r="D39">
-        <v>0.09379583191038109</v>
+        <v>0.01183698992088003</v>
       </c>
       <c r="E39">
-        <v>0.02090340742216694</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.02126135240405668</v>
+      </c>
+      <c r="F39">
+        <v>0.03639454093866625</v>
+      </c>
+      <c r="G39">
+        <v>0.02442711860200468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01056199768257807</v>
+        <v>0.02075270114166622</v>
       </c>
       <c r="C40">
-        <v>-0.01673831275333756</v>
+        <v>-0.03005580245846339</v>
       </c>
       <c r="D40">
-        <v>0.03649526185792409</v>
+        <v>0.01308894165065313</v>
       </c>
       <c r="E40">
-        <v>0.01681521091856983</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02348333228066598</v>
+      </c>
+      <c r="F40">
+        <v>0.01320292885236633</v>
+      </c>
+      <c r="G40">
+        <v>0.02354214312854679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.00489681750245437</v>
+        <v>0.01172449182234508</v>
       </c>
       <c r="C41">
-        <v>-0.01892603185324089</v>
+        <v>0.001571715596182898</v>
       </c>
       <c r="D41">
-        <v>-0.01163446299582273</v>
+        <v>0.003527811970555554</v>
       </c>
       <c r="E41">
-        <v>-0.004189383845552903</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.003712718435906055</v>
+      </c>
+      <c r="F41">
+        <v>0.0008592671346443624</v>
+      </c>
+      <c r="G41">
+        <v>0.01464763078277471</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09407315960071426</v>
+        <v>0.02485246264704249</v>
       </c>
       <c r="C42">
-        <v>-0.04603587227998069</v>
+        <v>-0.05184772226696598</v>
       </c>
       <c r="D42">
-        <v>0.2377257379586144</v>
+        <v>0.1003382289087258</v>
       </c>
       <c r="E42">
-        <v>0.294857681812785</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.04468957435802866</v>
+      </c>
+      <c r="F42">
+        <v>-0.08684186335688193</v>
+      </c>
+      <c r="G42">
+        <v>-0.1939398196402584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005918969259341861</v>
+        <v>0.02808266860158285</v>
       </c>
       <c r="C43">
-        <v>-0.0232694652102382</v>
+        <v>-0.008122921110167701</v>
       </c>
       <c r="D43">
-        <v>-0.01445208629270804</v>
+        <v>0.003775110913707682</v>
       </c>
       <c r="E43">
-        <v>0.00013161171498075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.004697301120298213</v>
+      </c>
+      <c r="F43">
+        <v>-0.001841878581441022</v>
+      </c>
+      <c r="G43">
+        <v>0.01997121636264109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.002828243935417232</v>
+        <v>0.0167525102976107</v>
       </c>
       <c r="C44">
-        <v>0.002067973535950732</v>
+        <v>-0.04704023769472318</v>
       </c>
       <c r="D44">
-        <v>0.01741431834878419</v>
+        <v>0.006361923198885562</v>
       </c>
       <c r="E44">
-        <v>-0.002377386096987455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01952511287452485</v>
+      </c>
+      <c r="F44">
+        <v>0.01754164157122526</v>
+      </c>
+      <c r="G44">
+        <v>0.03790489353128162</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01028442312255313</v>
+        <v>0.004128481418026921</v>
       </c>
       <c r="C46">
-        <v>-0.01566891280358769</v>
+        <v>-0.0168102658052039</v>
       </c>
       <c r="D46">
-        <v>0.01115812191839882</v>
+        <v>0.01157351233329443</v>
       </c>
       <c r="E46">
-        <v>0.00199802753525226</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001501593101633872</v>
+      </c>
+      <c r="F46">
+        <v>-0.01488057268852188</v>
+      </c>
+      <c r="G46">
+        <v>0.02381852503173501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0005675687626112793</v>
+        <v>0.07438942620046302</v>
       </c>
       <c r="C47">
-        <v>-0.06483473692192721</v>
+        <v>-0.06445289379438229</v>
       </c>
       <c r="D47">
-        <v>0.04103279930895801</v>
+        <v>-0.005397651507905306</v>
       </c>
       <c r="E47">
-        <v>0.009078998463696145</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0170539752068588</v>
+      </c>
+      <c r="F47">
+        <v>-0.06238960064910581</v>
+      </c>
+      <c r="G47">
+        <v>0.02386904003775603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002337067713976875</v>
+        <v>0.0196721589545309</v>
       </c>
       <c r="C48">
-        <v>-0.0248116065435612</v>
+        <v>-0.01056122629435131</v>
       </c>
       <c r="D48">
-        <v>0.00589788889183341</v>
+        <v>0.0008193983184928387</v>
       </c>
       <c r="E48">
-        <v>0.0008946512908272199</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002605456066471582</v>
+      </c>
+      <c r="F48">
+        <v>-0.01638025876863062</v>
+      </c>
+      <c r="G48">
+        <v>0.02332513323241385</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001738157105280424</v>
+        <v>0.07934959084806771</v>
       </c>
       <c r="C50">
-        <v>-0.05598453576327909</v>
+        <v>-0.06636807865248555</v>
       </c>
       <c r="D50">
-        <v>0.05178749384777336</v>
+        <v>-0.004282525960420325</v>
       </c>
       <c r="E50">
-        <v>-0.01576262763240581</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01656840955351962</v>
+      </c>
+      <c r="F50">
+        <v>-0.05896362181806755</v>
+      </c>
+      <c r="G50">
+        <v>0.0424830392610371</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006683266822937582</v>
+        <v>0.01120370425873815</v>
       </c>
       <c r="C51">
-        <v>-0.01572642716855271</v>
+        <v>-0.02735825968531946</v>
       </c>
       <c r="D51">
-        <v>-0.01708467186189765</v>
+        <v>0.008920318968405009</v>
       </c>
       <c r="E51">
-        <v>-0.01331500940339535</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01111565988522345</v>
+      </c>
+      <c r="F51">
+        <v>0.02570784138437558</v>
+      </c>
+      <c r="G51">
+        <v>0.0489036974321752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003373983848973758</v>
+        <v>0.09468700646305232</v>
       </c>
       <c r="C53">
-        <v>-0.08934602529050305</v>
+        <v>-0.07941823786550853</v>
       </c>
       <c r="D53">
-        <v>0.09145295116289362</v>
+        <v>-0.006012244262447022</v>
       </c>
       <c r="E53">
-        <v>0.01075029464386598</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.04316605019222553</v>
+      </c>
+      <c r="F53">
+        <v>-0.06403981822205454</v>
+      </c>
+      <c r="G53">
+        <v>0.02072441440519815</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001893633997387582</v>
+        <v>0.02972054760872676</v>
       </c>
       <c r="C54">
-        <v>-0.03593878161770792</v>
+        <v>-0.006308158670919397</v>
       </c>
       <c r="D54">
-        <v>-0.01422623001853429</v>
+        <v>-0.003832141438566345</v>
       </c>
       <c r="E54">
-        <v>-0.01500429794330292</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.004130216917759668</v>
+      </c>
+      <c r="F54">
+        <v>-0.008421030754227538</v>
+      </c>
+      <c r="G54">
+        <v>0.03069792391564767</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.001017726452398351</v>
+        <v>0.07312819490309752</v>
       </c>
       <c r="C55">
-        <v>-0.06416040252957361</v>
+        <v>-0.07338490611126842</v>
       </c>
       <c r="D55">
-        <v>0.08472003622314747</v>
+        <v>-0.004922831567741545</v>
       </c>
       <c r="E55">
-        <v>0.0210863129009988</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.03050826814161346</v>
+      </c>
+      <c r="F55">
+        <v>-0.06246878956864077</v>
+      </c>
+      <c r="G55">
+        <v>0.00801229869371658</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0007729757893757484</v>
+        <v>0.1454239765705724</v>
       </c>
       <c r="C56">
-        <v>-0.1165227809275926</v>
+        <v>-0.103090483771246</v>
       </c>
       <c r="D56">
-        <v>0.1245409729375098</v>
+        <v>-0.01414875559043421</v>
       </c>
       <c r="E56">
-        <v>0.02729793389771979</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04269437111397505</v>
+      </c>
+      <c r="F56">
+        <v>-0.09949191182334242</v>
+      </c>
+      <c r="G56">
+        <v>0.0004799769789735172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02277119073717553</v>
+        <v>0.0123248614600056</v>
       </c>
       <c r="C57">
-        <v>-0.01578807872861563</v>
+        <v>-0.01149208356945236</v>
       </c>
       <c r="D57">
-        <v>0.0397080933721454</v>
+        <v>0.02369218545193626</v>
       </c>
       <c r="E57">
-        <v>0.01044007274871736</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02994336003767193</v>
+      </c>
+      <c r="F57">
+        <v>0.01223579550945264</v>
+      </c>
+      <c r="G57">
+        <v>0.02288226638382645</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.00923461404108596</v>
+        <v>0.0659457367340917</v>
       </c>
       <c r="C58">
-        <v>-0.05544910129746749</v>
+        <v>-0.05928610370480985</v>
       </c>
       <c r="D58">
-        <v>0.06440868108244185</v>
+        <v>0.02088463334648718</v>
       </c>
       <c r="E58">
-        <v>0.1544355383469406</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9269754479864966</v>
+      </c>
+      <c r="F58">
+        <v>-0.2897596725440066</v>
+      </c>
+      <c r="G58">
+        <v>0.01896737135269469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02174131791981456</v>
+        <v>0.152939928821788</v>
       </c>
       <c r="C59">
-        <v>-0.215389751361813</v>
+        <v>0.2113378431875305</v>
       </c>
       <c r="D59">
-        <v>-0.2003872574472834</v>
+        <v>-0.01610284793514536</v>
       </c>
       <c r="E59">
-        <v>-0.01875725931016835</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0157785945949295</v>
+      </c>
+      <c r="F59">
+        <v>0.007407641073361184</v>
+      </c>
+      <c r="G59">
+        <v>0.02085187637626373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02761296272449364</v>
+        <v>0.2902014432952371</v>
       </c>
       <c r="C60">
-        <v>-0.1636706647434584</v>
+        <v>-0.09075199237166631</v>
       </c>
       <c r="D60">
-        <v>0.06806367516345441</v>
+        <v>0.008345886107049038</v>
       </c>
       <c r="E60">
-        <v>0.05842617741379284</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.0385550863905219</v>
+      </c>
+      <c r="F60">
+        <v>0.3836219082039948</v>
+      </c>
+      <c r="G60">
+        <v>-0.07805016233285408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002878590575082006</v>
+        <v>0.03290081248075053</v>
       </c>
       <c r="C61">
-        <v>-0.01128598704857611</v>
+        <v>-0.06387551921141155</v>
       </c>
       <c r="D61">
-        <v>0.06394824865285753</v>
+        <v>0.005185549614909478</v>
       </c>
       <c r="E61">
-        <v>0.01434639856316275</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01193599846365406</v>
+      </c>
+      <c r="F61">
+        <v>0.02047933109772904</v>
+      </c>
+      <c r="G61">
+        <v>0.02403489615221252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007452241561322494</v>
+        <v>0.01461843435486088</v>
       </c>
       <c r="C63">
-        <v>-0.01235918717181683</v>
+        <v>-0.02711247485534649</v>
       </c>
       <c r="D63">
-        <v>0.01211510899938125</v>
+        <v>0.008009552164200883</v>
       </c>
       <c r="E63">
-        <v>-0.003521045228226827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.007775373793398421</v>
+      </c>
+      <c r="F63">
+        <v>-0.01431527400734152</v>
+      </c>
+      <c r="G63">
+        <v>0.0309525758033162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006103648265874776</v>
+        <v>0.0480975405641859</v>
       </c>
       <c r="C64">
-        <v>-0.03115853829140959</v>
+        <v>-0.03710219297756226</v>
       </c>
       <c r="D64">
-        <v>0.06026944903506531</v>
+        <v>0.004646996005183209</v>
       </c>
       <c r="E64">
-        <v>0.01929276603769232</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.007602460101945241</v>
+      </c>
+      <c r="F64">
+        <v>0.007122438964438433</v>
+      </c>
+      <c r="G64">
+        <v>0.0194587694567421</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01748681276499573</v>
+        <v>0.08156547033619385</v>
       </c>
       <c r="C65">
-        <v>-0.03559214450221096</v>
+        <v>-0.06749367678597211</v>
       </c>
       <c r="D65">
-        <v>0.09061476314953801</v>
+        <v>0.01528814595146455</v>
       </c>
       <c r="E65">
-        <v>0.01451627399667184</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.01105951344141678</v>
+      </c>
+      <c r="F65">
+        <v>0.03838801426497539</v>
+      </c>
+      <c r="G65">
+        <v>0.01309203581411353</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005544216563869365</v>
+        <v>0.05292480297597303</v>
       </c>
       <c r="C66">
-        <v>0.0003379104603359373</v>
+        <v>-0.1157176552100873</v>
       </c>
       <c r="D66">
-        <v>0.1136472052103306</v>
+        <v>0.01126282020199622</v>
       </c>
       <c r="E66">
-        <v>0.04086543355468928</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02254293340424747</v>
+      </c>
+      <c r="F66">
+        <v>0.04578009436695926</v>
+      </c>
+      <c r="G66">
+        <v>0.0157984048255334</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.00186549335200437</v>
+        <v>0.05695015826967013</v>
       </c>
       <c r="C67">
-        <v>-0.0449062706367874</v>
+        <v>-0.03035612723852581</v>
       </c>
       <c r="D67">
-        <v>0.01392783218332626</v>
+        <v>-0.006598387522147477</v>
       </c>
       <c r="E67">
-        <v>0.003519394955149235</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.001934890125767321</v>
+      </c>
+      <c r="F67">
+        <v>-0.00344268649469264</v>
+      </c>
+      <c r="G67">
+        <v>0.02813329038157595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03847594348976489</v>
+        <v>0.138741730072578</v>
       </c>
       <c r="C68">
-        <v>-0.1802205630362008</v>
+        <v>0.2710885792627774</v>
       </c>
       <c r="D68">
-        <v>-0.1851395184394996</v>
+        <v>0.001509743091364352</v>
       </c>
       <c r="E68">
-        <v>-0.01943341289738521</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01902112443718041</v>
+      </c>
+      <c r="F68">
+        <v>-0.02113017049399638</v>
+      </c>
+      <c r="G68">
+        <v>0.01721929742046923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003395576392035196</v>
+        <v>0.07871370432180308</v>
       </c>
       <c r="C69">
-        <v>-0.05075641524209919</v>
+        <v>-0.06551537068547826</v>
       </c>
       <c r="D69">
-        <v>0.04753764865665476</v>
+        <v>-0.009506139479275734</v>
       </c>
       <c r="E69">
-        <v>0.005718650314322659</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03346116987179246</v>
+      </c>
+      <c r="F69">
+        <v>-0.04320095700427617</v>
+      </c>
+      <c r="G69">
+        <v>0.02393340377634844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02700284283978203</v>
+        <v>0.1321797647754833</v>
       </c>
       <c r="C71">
-        <v>-0.1638688172361486</v>
+        <v>0.2267556191031939</v>
       </c>
       <c r="D71">
-        <v>-0.1621442096383036</v>
+        <v>-0.007069858611142342</v>
       </c>
       <c r="E71">
-        <v>-0.02743220696495889</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02615052019765417</v>
+      </c>
+      <c r="F71">
+        <v>-0.02137148975282112</v>
+      </c>
+      <c r="G71">
+        <v>0.03396114635292382</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002687707356468206</v>
+        <v>0.08363481737785029</v>
       </c>
       <c r="C72">
-        <v>-0.06865966904365113</v>
+        <v>-0.07746779035984774</v>
       </c>
       <c r="D72">
-        <v>0.1375233871258103</v>
+        <v>-0.009067990638562017</v>
       </c>
       <c r="E72">
-        <v>0.05118010968705459</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.009290646670447223</v>
+      </c>
+      <c r="F72">
+        <v>0.04177817779555316</v>
+      </c>
+      <c r="G72">
+        <v>0.0008004780956948421</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04060510029583912</v>
+        <v>0.3976449272554765</v>
       </c>
       <c r="C73">
-        <v>-0.1985542147284951</v>
+        <v>-0.105848827865327</v>
       </c>
       <c r="D73">
-        <v>0.1237388140243437</v>
+        <v>0.01323948592554938</v>
       </c>
       <c r="E73">
-        <v>0.1320118165156338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.1008357031163052</v>
+      </c>
+      <c r="F73">
+        <v>0.5456731723106846</v>
+      </c>
+      <c r="G73">
+        <v>-0.1233145639430369</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0006783064209408961</v>
+        <v>0.1167214283679465</v>
       </c>
       <c r="C74">
-        <v>-0.1049050761193066</v>
+        <v>-0.1185184869967544</v>
       </c>
       <c r="D74">
-        <v>0.1213957342789541</v>
+        <v>-0.01062424391717803</v>
       </c>
       <c r="E74">
-        <v>0.03438927977105406</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03816286413753595</v>
+      </c>
+      <c r="F74">
+        <v>-0.07005294375152644</v>
+      </c>
+      <c r="G74">
+        <v>0.02179539454590553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.0001754337963141453</v>
+        <v>0.2609595676250006</v>
       </c>
       <c r="C75">
-        <v>-0.2385118056932538</v>
+        <v>-0.1501607742002708</v>
       </c>
       <c r="D75">
-        <v>0.2100543811956106</v>
+        <v>-0.0321194222736883</v>
       </c>
       <c r="E75">
-        <v>0.06689878257280844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.08259684346214345</v>
+      </c>
+      <c r="F75">
+        <v>-0.2067203486263938</v>
+      </c>
+      <c r="G75">
+        <v>-0.02823780845104563</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.004984838038506134</v>
+        <v>0.1361236842488551</v>
       </c>
       <c r="C76">
-        <v>-0.1850105587444594</v>
+        <v>-0.123744173357093</v>
       </c>
       <c r="D76">
-        <v>0.1953075647601247</v>
+        <v>-0.02224218950933342</v>
       </c>
       <c r="E76">
-        <v>0.03103276440690276</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.07637088131863627</v>
+      </c>
+      <c r="F76">
+        <v>-0.1268784329930433</v>
+      </c>
+      <c r="G76">
+        <v>0.01142003683373667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01245496718618348</v>
+        <v>0.06203028355082488</v>
       </c>
       <c r="C77">
-        <v>-0.01967016677311968</v>
+        <v>-0.06037195993099413</v>
       </c>
       <c r="D77">
-        <v>0.05895700276742594</v>
+        <v>0.01239721358874802</v>
       </c>
       <c r="E77">
-        <v>0.0136560377431934</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04798165869475932</v>
+      </c>
+      <c r="F77">
+        <v>0.00590592039010076</v>
+      </c>
+      <c r="G77">
+        <v>0.05037875049235276</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005126406981413672</v>
+        <v>0.04096825173489051</v>
       </c>
       <c r="C78">
-        <v>-0.02186155727443378</v>
+        <v>-0.05152181096208837</v>
       </c>
       <c r="D78">
-        <v>0.06581260781313646</v>
+        <v>0.00562396934650824</v>
       </c>
       <c r="E78">
-        <v>0.0158694059055477</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02419451698815926</v>
+      </c>
+      <c r="F78">
+        <v>0.03395188793570075</v>
+      </c>
+      <c r="G78">
+        <v>0.03560594725574159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01507663146051641</v>
+        <v>0.06184640623770994</v>
       </c>
       <c r="C80">
-        <v>-0.1658733563120245</v>
+        <v>-0.06552912825477297</v>
       </c>
       <c r="D80">
-        <v>0.2910510174058495</v>
+        <v>0.01151405323672738</v>
       </c>
       <c r="E80">
-        <v>-0.8902533660662693</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04652318404337063</v>
+      </c>
+      <c r="F80">
+        <v>0.02927310793348728</v>
+      </c>
+      <c r="G80">
+        <v>0.9130132906932557</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0009716797866974929</v>
+        <v>0.1441324353810494</v>
       </c>
       <c r="C81">
-        <v>-0.1543750834966831</v>
+        <v>-0.09518249597045121</v>
       </c>
       <c r="D81">
-        <v>0.1409102555083808</v>
+        <v>-0.016269618133521</v>
       </c>
       <c r="E81">
-        <v>0.03343071436683263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.04937693615034799</v>
+      </c>
+      <c r="F81">
+        <v>-0.1307299222910336</v>
+      </c>
+      <c r="G81">
+        <v>0.01766320731513954</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05238572505938236</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.0355939752821229</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.003083930066824384</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01881305588351229</v>
+      </c>
+      <c r="F82">
+        <v>-0.005799883777398534</v>
+      </c>
+      <c r="G82">
+        <v>-0.01077324094538433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006475724001753507</v>
+        <v>0.02836916348037117</v>
       </c>
       <c r="C83">
-        <v>-0.02887782396054438</v>
+        <v>-0.02116607580469005</v>
       </c>
       <c r="D83">
-        <v>0.02039813656432487</v>
+        <v>0.005193696022365966</v>
       </c>
       <c r="E83">
-        <v>0.009597905517985585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02729836337833649</v>
+      </c>
+      <c r="F83">
+        <v>0.01487350442054752</v>
+      </c>
+      <c r="G83">
+        <v>0.02414616972313303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008582888192625485</v>
+        <v>0.2380782349189308</v>
       </c>
       <c r="C85">
-        <v>-0.1921539512087206</v>
+        <v>-0.1535465002993182</v>
       </c>
       <c r="D85">
-        <v>0.2207206198042503</v>
+        <v>-0.02096382766267547</v>
       </c>
       <c r="E85">
-        <v>0.07829994595360069</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1289433549211028</v>
+      </c>
+      <c r="F85">
+        <v>-0.1836502411373555</v>
+      </c>
+      <c r="G85">
+        <v>-0.05069548493803988</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005174826073944715</v>
+        <v>0.0105522333668419</v>
       </c>
       <c r="C86">
-        <v>-0.00950676664660555</v>
+        <v>-0.02126368292195973</v>
       </c>
       <c r="D86">
-        <v>0.006380863846140063</v>
+        <v>0.009683387829617036</v>
       </c>
       <c r="E86">
-        <v>0.02067585497669694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.03945202795232157</v>
+      </c>
+      <c r="F86">
+        <v>0.009528060453376518</v>
+      </c>
+      <c r="G86">
+        <v>0.04962508483948291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006011743248156671</v>
+        <v>0.0134057657150377</v>
       </c>
       <c r="C87">
-        <v>-0.005165404098932468</v>
+        <v>-0.02733721958238693</v>
       </c>
       <c r="D87">
-        <v>0.02820868682817056</v>
+        <v>0.01171124256608792</v>
       </c>
       <c r="E87">
-        <v>0.005827672212237416</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08508528788617532</v>
+      </c>
+      <c r="F87">
+        <v>0.04401033911800027</v>
+      </c>
+      <c r="G87">
+        <v>0.04535413706866678</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02555293249532266</v>
+        <v>0.08762537014456494</v>
       </c>
       <c r="C88">
-        <v>-0.04337018060922915</v>
+        <v>-0.06107687404637292</v>
       </c>
       <c r="D88">
-        <v>0.01057766734586841</v>
+        <v>0.02124035596595951</v>
       </c>
       <c r="E88">
-        <v>0.003835285599451468</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01633833654707327</v>
+      </c>
+      <c r="F88">
+        <v>-0.01690259800650724</v>
+      </c>
+      <c r="G88">
+        <v>0.02271928212925231</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05059921957050611</v>
+        <v>0.2229242585181713</v>
       </c>
       <c r="C89">
-        <v>-0.3099030836237409</v>
+        <v>0.3661230151308852</v>
       </c>
       <c r="D89">
-        <v>-0.298445713785618</v>
+        <v>-0.008159742254135413</v>
       </c>
       <c r="E89">
-        <v>-0.02025987587563326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01862686673446578</v>
+      </c>
+      <c r="F89">
+        <v>-0.0366923768724418</v>
+      </c>
+      <c r="G89">
+        <v>0.02717976925097643</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.03833133864309199</v>
+        <v>0.1916950649109285</v>
       </c>
       <c r="C90">
-        <v>-0.2277076179885744</v>
+        <v>0.3345049549453382</v>
       </c>
       <c r="D90">
-        <v>-0.2663324343532347</v>
+        <v>-0.01184452692664926</v>
       </c>
       <c r="E90">
-        <v>-0.01055079091766161</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.006561452911187707</v>
+      </c>
+      <c r="F90">
+        <v>-0.04527600013442443</v>
+      </c>
+      <c r="G90">
+        <v>-0.005826092553088105</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.0006199504767126507</v>
+        <v>0.2075199523326917</v>
       </c>
       <c r="C91">
-        <v>-0.2095085081076286</v>
+        <v>-0.1390960617146816</v>
       </c>
       <c r="D91">
-        <v>0.2083578365701601</v>
+        <v>-0.02511307621627621</v>
       </c>
       <c r="E91">
-        <v>0.0597973094911145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.09481294954405885</v>
+      </c>
+      <c r="F91">
+        <v>-0.181788169564094</v>
+      </c>
+      <c r="G91">
+        <v>-0.002285280635378378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.005232804714090878</v>
+        <v>0.2105297495808383</v>
       </c>
       <c r="C92">
-        <v>-0.3505027815853335</v>
+        <v>0.266778371561095</v>
       </c>
       <c r="D92">
-        <v>-0.1807679410110472</v>
+        <v>-0.05361877395033847</v>
       </c>
       <c r="E92">
-        <v>-0.003421654916262563</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0110636309801021</v>
+      </c>
+      <c r="F92">
+        <v>-0.1249852767683974</v>
+      </c>
+      <c r="G92">
+        <v>0.06189752809238286</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03673341325113447</v>
+        <v>0.2182533262189793</v>
       </c>
       <c r="C93">
-        <v>-0.2779732424371609</v>
+        <v>0.331055753325849</v>
       </c>
       <c r="D93">
-        <v>-0.2751529445064815</v>
+        <v>-0.01859783823728474</v>
       </c>
       <c r="E93">
-        <v>0.009659643971593605</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0028465035664559</v>
+      </c>
+      <c r="F93">
+        <v>-0.02837424770688279</v>
+      </c>
+      <c r="G93">
+        <v>-0.002200104817747013</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01984459968401299</v>
+        <v>0.2812937194828834</v>
       </c>
       <c r="C94">
-        <v>-0.251235451462241</v>
+        <v>-0.1634645785081986</v>
       </c>
       <c r="D94">
-        <v>0.2014951589922444</v>
+        <v>-0.01505752184272751</v>
       </c>
       <c r="E94">
-        <v>0.1112060961729134</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.13795647521029</v>
+      </c>
+      <c r="F94">
+        <v>-0.3903425203793007</v>
+      </c>
+      <c r="G94">
+        <v>-0.1592786734241276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.00656596802460851</v>
+        <v>0.08177977728466075</v>
       </c>
       <c r="C95">
-        <v>-0.0454747544030236</v>
+        <v>-0.07478208931640772</v>
       </c>
       <c r="D95">
-        <v>0.05383044709747891</v>
+        <v>-0.007355470309059725</v>
       </c>
       <c r="E95">
-        <v>0.110996144552319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.09159040145436094</v>
+      </c>
+      <c r="F95">
+        <v>0.1521060141683781</v>
+      </c>
+      <c r="G95">
+        <v>-0.05370578241504351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.003574669808157336</v>
+        <v>0.2078825386154239</v>
       </c>
       <c r="C98">
-        <v>-0.1648742720907417</v>
+        <v>-0.04904242150217228</v>
       </c>
       <c r="D98">
-        <v>0.08541425291829328</v>
+        <v>-0.01623985101506162</v>
       </c>
       <c r="E98">
-        <v>0.07898850897682635</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.08610228460151804</v>
+      </c>
+      <c r="F98">
+        <v>0.2424945627875041</v>
+      </c>
+      <c r="G98">
+        <v>-0.03300771586876701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.006795678948599345</v>
+        <v>0.01413241344633598</v>
       </c>
       <c r="C101">
-        <v>-0.02264721267821476</v>
+        <v>-0.02119268678403061</v>
       </c>
       <c r="D101">
-        <v>0.01277704641761901</v>
+        <v>0.006864898494261459</v>
       </c>
       <c r="E101">
-        <v>-0.004207751781590544</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.001175046523231861</v>
+      </c>
+      <c r="F101">
+        <v>-0.02338292803332361</v>
+      </c>
+      <c r="G101">
+        <v>0.03010102257338089</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01363124165668205</v>
+        <v>0.1246156890643395</v>
       </c>
       <c r="C102">
-        <v>-0.1222642927028372</v>
+        <v>-0.08264299815350876</v>
       </c>
       <c r="D102">
-        <v>0.1059970008086048</v>
+        <v>-0.0002420722394791079</v>
       </c>
       <c r="E102">
-        <v>0.03253867234541906</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.04070286532008518</v>
+      </c>
+      <c r="F102">
+        <v>-0.05918951782207642</v>
+      </c>
+      <c r="G102">
+        <v>-0.006450601268034595</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001999083701983878</v>
+        <v>0.004041180807472382</v>
       </c>
       <c r="C103">
-        <v>-0.01685450243421959</v>
+        <v>-0.005277023214370949</v>
       </c>
       <c r="D103">
-        <v>0.02618684272103045</v>
+        <v>0.0006789394033662111</v>
       </c>
       <c r="E103">
-        <v>-0.01020572388392313</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0004372683519370909</v>
+      </c>
+      <c r="F103">
+        <v>-0.008518823220366806</v>
+      </c>
+      <c r="G103">
+        <v>0.01848689523140272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9859642033067053</v>
+        <v>0.03875764529926837</v>
       </c>
       <c r="C104">
-        <v>0.09585243809179281</v>
+        <v>0.04305571230048406</v>
       </c>
       <c r="D104">
-        <v>0.004520447500308634</v>
+        <v>0.9862629186772617</v>
       </c>
       <c r="E104">
-        <v>-0.02423212359386818</v>
+        <v>-0.047925442040582</v>
+      </c>
+      <c r="F104">
+        <v>-0.03614863276852544</v>
+      </c>
+      <c r="G104">
+        <v>-0.002877119951162368</v>
       </c>
     </row>
   </sheetData>
